--- a/Test Data/HCM Employee Relations/repetationTesting.xlsx
+++ b/Test Data/HCM Employee Relations/repetationTesting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\apps\OracleATS\OFT\Maaden\Test Data\HCM Employee Relations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06B8828-3AF3-4669-B2E6-5DBF835ED76A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7021133C-7B5C-4928-A469-2DB963B3BE98}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{EDE52EBF-C34A-44E8-A19F-627BCDE4ABAD}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
   <si>
     <t>URL</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>1085511259</t>
+  </si>
+  <si>
+    <t>welcome1234</t>
   </si>
 </sst>
 </file>
@@ -477,7 +480,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -546,7 +549,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
